--- a/dist/assets/BOs/Kronos.xlsx
+++ b/dist/assets/BOs/Kronos.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C6408-3CC5-4E3D-A66A-5731889980F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79672E4C-66FE-4263-883D-51DCDC55327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>Archaic</t>
   </si>
@@ -745,6 +746,264 @@
   </si>
   <si>
     <t>Krush 6 vill - Defiance</t>
+  </si>
+  <si>
+    <t>Oranos/Kronos - 6 Citizen Rush BO - By Chonikler IV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>/ 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills to hunt, use TC to kill multiple hunt targets if in range</t>
+  </si>
+  <si>
+    <t>Scout out map and enemy base with Oracles</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>At 150 gold, 1 gold citizen builds temple, 2nd gold citizen to Hunt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>When temple is finished, send builder to food</t>
+  </si>
+  <si>
+    <t>Pause citizen autoqueue but let 6th citizen continue training</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (2:00-2:10)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RE-ENABLE citizen autoqueue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> split citizens up as desired for rush, at least 1 to wood and 1 to food for citizen production post age up</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZhVM3WpLeA</t>
   </si>
 </sst>
 </file>
@@ -755,11 +1014,18 @@
     <numFmt numFmtId="164" formatCode="[$-410]General"/>
     <numFmt numFmtId="165" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,6 +1158,67 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -924,86 +1251,100 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{AF420925-7D11-4B4B-B056-D95B36C2C522}"/>
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{5F5B833E-894C-40AE-816C-12E3EC1F16F5}"/>
     <cellStyle name="Heading" xfId="4" xr:uid="{F93BCE2D-11FB-45DE-AABF-099762F93990}"/>
     <cellStyle name="Heading1" xfId="5" xr:uid="{0D91558A-CA94-4B52-A01E-6D82A406247E}"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0C4249D6-572E-4D52-AB23-DB8CF996D3BD}"/>
     <cellStyle name="Result" xfId="6" xr:uid="{B3530545-77F0-44E4-9A39-D4E56FE019D7}"/>
@@ -1222,9 +1563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29201DD4-0BA0-4357-B6EF-E853727856B2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1236,7 +1577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1585,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1597,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1607,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1278,7 +1619,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1288,7 +1629,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -1300,7 +1641,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1312,21 +1653,21 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1675,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1344,7 +1685,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1695,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1364,13 +1705,13 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25">
+    <row r="17" spans="2:4" ht="13.8">
       <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1386,6 +1727,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6290AB1-5BA3-40D8-96B4-72BADE75A566}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8">
+      <c r="A4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8">
+      <c r="A8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="33"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="34"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="34"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AFAB70-4E5E-42D3-83B6-DF9A10131128}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -1393,23 +1901,23 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.8">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1925,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1427,7 +1935,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1945,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1955,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1965,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1975,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1985,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1995,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1497,15 +2005,15 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +2021,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +2031,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -1531,7 +2039,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -1539,7 +2047,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>26</v>
@@ -1547,85 +2055,85 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="14.25">
+    <row r="25" spans="1:4" ht="13.8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
+    <row r="26" spans="1:4" ht="13.8">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="13.8">
       <c r="A27" s="7"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="13.8">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
+    <row r="30" spans="1:4" ht="13.8">
       <c r="A30" s="5"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
+    <row r="31" spans="1:4" ht="13.8">
       <c r="A31" s="5"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
@@ -1641,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE44DDD-FD83-4859-87F1-724BEE06FE49}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1649,163 +2157,161 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="409.6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="315.75">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:4" ht="300.60000000000002">
+      <c r="A5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="195.75">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:4" ht="195.6">
+      <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="409.5">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.6">
+      <c r="A10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.25">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.8">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="255.75">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:4" ht="255.6">
+      <c r="A13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="285">
-      <c r="A14" s="17"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="315">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="A15" s="8"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>77</v>
       </c>
     </row>
